--- a/output/mysiadlo/2019/sheets/year_2019.xlsx
+++ b/output/mysiadlo/2019/sheets/year_2019.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>55.21290322580645</v>
+        <v>57.07646194578953</v>
       </c>
       <c r="C2" t="n">
-        <v>49.88709677419356</v>
+        <v>50.82526002399015</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>57.86785714285714</v>
+        <v>58.72151055580156</v>
       </c>
       <c r="C3" t="n">
-        <v>51.68214285714286</v>
+        <v>52.04619038981774</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>58.73225806451613</v>
+        <v>59.07642854503732</v>
       </c>
       <c r="C4" t="n">
-        <v>52.47096774193549</v>
+        <v>52.86440226475352</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>56.00333333333333</v>
+        <v>57.65549999618361</v>
       </c>
       <c r="C5" t="n">
-        <v>50.48</v>
+        <v>51.03110890479256</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>58.27741935483872</v>
+        <v>58.96668148748574</v>
       </c>
       <c r="C6" t="n">
-        <v>50.53548387096774</v>
+        <v>52.85960926483381</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>56.52666666666668</v>
+        <v>57.86202838696927</v>
       </c>
       <c r="C7" t="n">
-        <v>52.42666666666666</v>
+        <v>52.90956998550205</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40.7483870967742</v>
+        <v>42.60453529986545</v>
       </c>
       <c r="C8" t="n">
-        <v>43.80322580645161</v>
+        <v>44.29087541235512</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>57.53870967741935</v>
+        <v>58.54066783951197</v>
       </c>
       <c r="C9" t="n">
-        <v>52.01290322580644</v>
+        <v>52.59449838875472</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>58.27333333333333</v>
+        <v>59.15228573511247</v>
       </c>
       <c r="C10" t="n">
-        <v>52.76000000000001</v>
+        <v>53.18297284773251</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>58.39032258064517</v>
+        <v>58.83896292709736</v>
       </c>
       <c r="C11" t="n">
-        <v>52.34193548387096</v>
+        <v>52.55919557694381</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>51.82</v>
+        <v>54.45401117898864</v>
       </c>
       <c r="C12" t="n">
-        <v>48.96</v>
+        <v>49.58650481487685</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>57.22903225806451</v>
+        <v>58.1273521092991</v>
       </c>
       <c r="C13" t="n">
-        <v>51.13225806451613</v>
+        <v>51.60277594501748</v>
       </c>
     </row>
   </sheetData>
